--- a/src/main/webapp/Coordinador/modeloExcel_onuMujeres.xlsx
+++ b/src/main/webapp/Coordinador/modeloExcel_onuMujeres.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\iweb_java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KLIPKLOP-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6C441-28F6-4C16-9A39-BA2EDD656426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4416970-7F5F-4090-8DD6-C5CFEFD01ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommoditiesGenericLocationTypeT" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommoditiesGenericLocationTypeT!$A$1:$AD$5</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>Sector</t>
   </si>
@@ -119,21 +122,9 @@
     <t>COLOCAR SUS RESPUESTAS A CONTINUACION, CADA LINEA EQUIVALE A UNA NUEVA ENCUESTA</t>
   </si>
   <si>
-    <t>Numerico de 8 caracteres</t>
-  </si>
-  <si>
-    <t>Fecha que inicio la entrevista</t>
-  </si>
-  <si>
-    <t>Fecha de envio de la entrevista</t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
-    <t>Numerico, si no hay informacion dejar en blanco</t>
-  </si>
-  <si>
     <t>Numerico</t>
   </si>
   <si>
@@ -173,22 +164,10 @@
     <t>Colocar el DNI de la persona entrevistada</t>
   </si>
   <si>
-    <t>Colocar la fecha en la cual la entrevista inicio, en caso de desconocerce dejarlo vacio</t>
-  </si>
-  <si>
-    <t>Colocar la fecha en la que la entrevista se culmuno, en caso de desconocerce dejarlo vacio</t>
-  </si>
-  <si>
     <t>Colocar la fecha actual, en caso de desconocerce dejarlo vacio</t>
   </si>
   <si>
-    <t>Colocar el nombre y apellido de la persona entrevistada</t>
-  </si>
-  <si>
     <t>Colocar el asentamiento humano de la persona entrevistada</t>
-  </si>
-  <si>
-    <t>Colocar el sector de la personas entrevistada</t>
   </si>
   <si>
     <t xml:space="preserve">Colocar el nombre de la cuidadora </t>
@@ -231,9 +210,6 @@
 </t>
   </si>
   <si>
-    <t>Numerico del tipo dd/MM/AA HH:MM:SS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Opcion: coloque 5(A),  6(B), 7(C),  8(D), 9(E), 10(F) </t>
   </si>
   <si>
@@ -254,12 +230,84 @@
   <si>
     <t xml:space="preserve">Colocar la edad de la persona que se dedica al trabajo (En años), caso contrario dejarlo vacio
 </t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Numerico de 0 a 24</t>
+  </si>
+  <si>
+    <t>Colocar el nombre y apellido de la persona que entrevista</t>
+  </si>
+  <si>
+    <t>Numerico del tipo dd/MM/AA</t>
+  </si>
+  <si>
+    <t>Numerico de 0 a 99</t>
+  </si>
+  <si>
+    <t>Numerico de 0 a 150</t>
+  </si>
+  <si>
+    <t>Numerico de 8 caracteres solo el formato xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Colocar el sector del asentamientos humano de la personas entrevistada</t>
+  </si>
+  <si>
+    <t>¿Conoce los servicios de cuidados: cuna más, OMAPED, CIAM, etc.?</t>
+  </si>
+  <si>
+    <t>A. No hay una cerca a su casa</t>
+  </si>
+  <si>
+    <t>B. Prefiere cuidar personalmente</t>
+  </si>
+  <si>
+    <t>C. No puedo pagar</t>
+  </si>
+  <si>
+    <t>D. No confío en las guarderías</t>
+  </si>
+  <si>
+    <t>E. Pago a alguien para que cuide dentro de mi casa</t>
+  </si>
+  <si>
+    <t>F. Otro motivo</t>
+  </si>
+  <si>
+    <t>Numerico de 9 cifras, si no hay informacion dejar en blanco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -271,10 +319,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -532,15 +582,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,7 +605,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +617,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,11 +638,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -603,13 +650,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -950,569 +1007,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="15.625" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
-    <col min="22" max="22" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="19.875" customWidth="1"/>
     <col min="23" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="19.875" customWidth="1"/>
-    <col min="25" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="26" width="19.25" customWidth="1"/>
-    <col min="27" max="27" width="15.375" customWidth="1"/>
-    <col min="28" max="28" width="19" customWidth="1"/>
-    <col min="29" max="29" width="16.375" customWidth="1"/>
-    <col min="30" max="30" width="13.5" customWidth="1"/>
-    <col min="31" max="31" width="33.875" customWidth="1"/>
+    <col min="24" max="24" width="19.25" customWidth="1"/>
+    <col min="25" max="25" width="15.375" customWidth="1"/>
+    <col min="26" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="16.375" customWidth="1"/>
+    <col min="29" max="29" width="13.5" customWidth="1"/>
+    <col min="30" max="30" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="K3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="S3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="W3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="Z3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AD3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="L4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="P4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="T4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="U4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="AA4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
       <c r="AD5" s="24"/>
-      <c r="AE5" s="25"/>
-    </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="3"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="A5:S5"/>
   </mergeCells>
   <dataValidations count="17">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{2A6000E2-8D9E-4995-9FEA-6F0948B7FE38}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A4:A1048576" xr:uid="{2A6000E2-8D9E-4995-9FEA-6F0948B7FE38}">
       <formula1>10000000</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{4BE02CC5-008D-43D2-80D9-36117323311C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5" xr:uid="{4BE02CC5-008D-43D2-80D9-36117323311C}">
       <formula1>5</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{0D93C3DB-D9A8-4E72-A93B-C04667DE14E9}">
-      <formula1>1</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{43F1CC94-8F47-477E-A62A-1778D7E84540}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L5" xr:uid="{43F1CC94-8F47-477E-A62A-1778D7E84540}">
       <formula1>3</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1048576" xr:uid="{1E8FD683-D1F4-47E0-BC39-B64C7F795C38}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5" xr:uid="{1E8FD683-D1F4-47E0-BC39-B64C7F795C38}">
       <formula1>11</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576 U1:U1048576" xr:uid="{1DE891D5-0A0C-482E-8CEE-F3BAD951B207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576 S1:S2 S4:S1048576" xr:uid="{1DE891D5-0A0C-482E-8CEE-F3BAD951B207}">
       <formula1>0</formula1>
       <formula2>99</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{1D8346B6-2D49-471C-91B6-0026DF32C6E3}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R5" xr:uid="{1D8346B6-2D49-471C-91B6-0026DF32C6E3}">
       <formula1>15</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{85C9A73B-CD01-45CA-8153-CB53113F85DE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U5" xr:uid="{85C9A73B-CD01-45CA-8153-CB53113F85DE}">
       <formula1>17</formula1>
       <formula2>18</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{097457FC-F8E4-4002-B12B-0F589D9D452E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V5" xr:uid="{097457FC-F8E4-4002-B12B-0F589D9D452E}">
       <formula1>19</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576 K1:K1048576" xr:uid="{5EA7C787-9666-4739-9A06-8DEF3B0810B9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 W1:W2 W4:W1048576" xr:uid="{5EA7C787-9666-4739-9A06-8DEF3B0810B9}">
       <formula1>0</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576" xr:uid="{2FE967D3-39C4-4B81-B8E6-CB139BCC9EBB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X5" xr:uid="{2FE967D3-39C4-4B81-B8E6-CB139BCC9EBB}">
       <formula1>21</formula1>
       <formula2>22</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{5ADEBB2B-88B9-41CC-99DD-5E721F71B02C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2 AA5 Z4:Z6 Z8:Z1048576" xr:uid="{5ADEBB2B-88B9-41CC-99DD-5E721F71B02C}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576" xr:uid="{B335C206-F097-46D4-AAE7-9AC82452D2B9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB5" xr:uid="{B335C206-F097-46D4-AAE7-9AC82452D2B9}">
       <formula1>25</formula1>
       <formula2>26</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576" xr:uid="{C361654E-E569-4FC5-A719-3E5C61F370E5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC5" xr:uid="{C361654E-E569-4FC5-A719-3E5C61F370E5}">
       <formula1>27</formula1>
       <formula2>28</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576" xr:uid="{C0769D36-CB4B-4010-B949-19A47DCE2325}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y5" xr:uid="{C0769D36-CB4B-4010-B949-19A47DCE2325}">
       <formula1>23</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{1BC4A475-79AC-4AFC-B28E-828D5BB27E9E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q5" xr:uid="{1BC4A475-79AC-4AFC-B28E-828D5BB27E9E}">
       <formula1>13</formula1>
       <formula2>14</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{93634C76-1844-4DF8-9EAC-22F173D20241}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H2 H4:H1048576" xr:uid="{93634C76-1844-4DF8-9EAC-22F173D20241}">
       <formula1>100000000</formula1>
       <formula2>999999999</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048576" xr:uid="{F07B14AE-6121-4DE8-AF2F-EDC709A36375}">
+      <formula1>43831</formula1>
+      <formula2>47848</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DEE8DF9-16FD-4913-B45E-2CE166DDA6E9}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{301A6A6A-D78D-4070-9C25-8DDD789C26E7}">
           <x14:formula1>
-            <xm:f>Hoja1!$B$1:$B$5</xm:f>
+            <xm:f>Hoja1!$B$8:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G130</xm:sqref>
+          <xm:sqref>J6:J1048576 L6:L1048576 N6:N1048576 Q6:R1048576 U6:V1048576 Y6:Y1048576 AB6:AC1048576 X8:X1048576 AA6:AA1048576 X7 X6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5004830-1EAB-4BF3-B6A2-CFE90328C0D4}">
+          <x14:formula1>
+            <xm:f>Hoja1!$B$14:$B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0496A234-284E-402B-8223-5C9AEE57C4B6}">
+          <x14:formula1>
+            <xm:f>Hoja1!$C$22:$C$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>M6:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1522,10 +1561,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D632B-BC8D-4764-A6D1-FF37F1364D87}">
-  <dimension ref="A1:B28"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1571,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,11 +1628,17 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1618,73 +1664,127 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
